--- a/biology/Médecine/Hélène_Bergès/Hélène_Bergès.xlsx
+++ b/biology/Médecine/Hélène_Bergès/Hélène_Bergès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Berg%C3%A8s</t>
+          <t>Hélène_Bergès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélène Bergès, née le 27 août 1966 à Pau, est une biologiste française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Berg%C3%A8s</t>
+          <t>Hélène_Bergès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Bergès est docteur en génétique et biologie moléculaire de l'université Toulouse-III-Paul-Sabatier en 1995[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Bergès est docteur en génétique et biologie moléculaire de l'université Toulouse-III-Paul-Sabatier en 1995. 
 Elle a été directrice du Centre national de ressources génomiques végétales (CNRGV) à l'Institut national de la recherche agronomique (INRA) de 2003 à juillet 2019. Elle est en outre membre du conseil scientifique de l'Office parlementaire d'évaluation des choix scientifiques et technologiques (OPECST). Elle est considérée comme une personne de référence dans le domaine des ressources génomiques au niveau national et international. Hélène Bergès a créé ex nihilo une structure unique en France gérant un tel patrimoine génomique pour les plantes. 
 Elle a su mettre en place des projets d’envergure en collaboration avec des laboratoires au niveau international pour que le CNRGV joue un rôle clef dans les programmes de génomique végétale. Grâce à son travail, elle contribue à décrypter la complexité des génomes des plantes et notamment étudie les mécanismes permettant aux plantes de s’adapter à l'environnement (comme la résistance à divers stress). 
 Elle est membre de plusieurs consortia internationaux visant à séquencer des génomes de plantes (IWGSC pour le blé, SUGESI pour la canne à sucre, IBSC pour l’orge, le tournesol …).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Berg%C3%A8s</t>
+          <t>Hélène_Bergès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2012 : Lauriers INRA
 2013 : Novélisée[Quoi ?] par la mairie de Toulouse
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Berg%C3%A8s</t>
+          <t>Hélène_Bergès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Autres activités professionnelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre du conseil scientifique de l’OPECST (Office parlementaire d'évaluation des choix xcientifiques et technologiques)
 Membre du comité international de séquençage blé de l'IWGSC (International Wheat Genome Sequencing Consortium)
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Berg%C3%A8s</t>
+          <t>Hélène_Bergès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Dernières publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rousseau-Gueutin M, Morice J, Coriton O, Huteau V, Trotoux G, Nègre S, Falentin C, Deniot G, Gilet M, Eber F, Pelé A, Vautrin S, Fourment J, Lodé M, Bergès H, Chèvre AM. (2016) The Impact of Open Pollination on the Structural Evolutionary Dynamics, Meiotic Behavior and Fertility of Resynthesized Allotetraploid Brassica napus L. G3 (Bethesda). pii: g3.116.036517. doi: 10.1534/g3.116.036517.
 Roselli S, Olry A, Vautrin S, Coriton O, Ritchie D, Galati G, Navrot N, Krieger C, Vialart G, Bergès H, Bourgaud F, Hehn A. (2016)  A bacterial artificial chromosome (BAC) genomic approach reveals partial clustering of the furanocoumarin pathway genes in parsnip. Plant J. doi: 10.1111/tpj.13450.
